--- a/Combined Finalize logic tree/Lexus_ES RX LX GS_Ac not working.xlsx
+++ b/Combined Finalize logic tree/Lexus_ES RX LX GS_Ac not working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Combined Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E36DD7B-73CA-47C9-8EB6-85937ECAB354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B6FCE3-A534-47B8-B726-D26E8442B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{B4E8BF49-E48B-4EE4-84FB-5B33FFF5D081}"/>
   </bookViews>
@@ -68,20 +68,6 @@
     <t>Possible_Problem</t>
   </si>
   <si>
-    <t>Possible_Problem:20% Compressor Failure (Clutch Failure)
-15%Refrigerant Level
-10% Compressor Fuse
-10% Compressor Relay
-10% Expansion Valve
-10% Restricted Condenser Airflow (Cooling Fan)
-5% Refrigerant Pressure Sensors
-Blower Fan
-5% HVAC Door Actuators
-5% Blower Fan Fuse
-5% Restricted Cabin Air Filter
-5% HVAC Control Unit</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -174,6 +160,19 @@
   </si>
   <si>
     <t>Problem:With your vehicle's engine is running, does the temperature gauge on the dashboard indicate that the engine runs hotter when the Air Conditioner (A/C) is turned on)?</t>
+  </si>
+  <si>
+    <t>Possible_Problem:20% Compressor Failure (Clutch Failure)
+15%Refrigerant Level
+10% Compressor Fuse
+10% Compressor Relay
+10% Expansion Valve
+10% Restricted Condenser Airflow (Cooling Fan)
+5% Refrigerant Pressure Sensors
+5% HVAC Door Actuators
+5% Blower Fan Fuse
+5% Restricted Cabin Air Filter
+5% HVAC Control Unit</t>
   </si>
 </sst>
 </file>
@@ -530,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40ECBF2-8215-4866-A24E-8CC7F09C90D6}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -599,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -610,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -621,183 +620,183 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
